--- a/py_Normales.xlsx
+++ b/py_Normales.xlsx
@@ -461,7 +461,7 @@
         <v>43466</v>
       </c>
       <c r="B2" t="n">
-        <v>30877602.19952178</v>
+        <v>30947677.7467459</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -470,7 +470,7 @@
         <v>43497</v>
       </c>
       <c r="B3" t="n">
-        <v>29425926.01498989</v>
+        <v>29515377.67375821</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -479,7 +479,7 @@
         <v>43525</v>
       </c>
       <c r="B4" t="n">
-        <v>32825791.26025853</v>
+        <v>32905530.39406767</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -488,7 +488,7 @@
         <v>43556</v>
       </c>
       <c r="B5" t="n">
-        <v>31884251.26219973</v>
+        <v>32032478.07125073</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -497,7 +497,7 @@
         <v>43586</v>
       </c>
       <c r="B6" t="n">
-        <v>31739388.76188866</v>
+        <v>31893947.75122008</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -506,7 +506,7 @@
         <v>43617</v>
       </c>
       <c r="B7" t="n">
-        <v>28902159.54152019</v>
+        <v>29080626.15851077</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -515,7 +515,7 @@
         <v>43647</v>
       </c>
       <c r="B8" t="n">
-        <v>31176153.4257907</v>
+        <v>31241377.11932004</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -524,7 +524,7 @@
         <v>43678</v>
       </c>
       <c r="B9" t="n">
-        <v>30406426.97604388</v>
+        <v>30492705.88288156</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -533,7 +533,7 @@
         <v>43709</v>
       </c>
       <c r="B10" t="n">
-        <v>30281776.63791834</v>
+        <v>30367625.67267536</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
@@ -542,7 +542,7 @@
         <v>43739</v>
       </c>
       <c r="B11" t="n">
-        <v>30721108.17010658</v>
+        <v>30844313.4298753</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
@@ -551,7 +551,7 @@
         <v>43770</v>
       </c>
       <c r="B12" t="n">
-        <v>29352848.9193178</v>
+        <v>29496216.03605703</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
@@ -560,7 +560,7 @@
         <v>43800</v>
       </c>
       <c r="B13" t="n">
-        <v>30191687.56662747</v>
+        <v>30310231.59247039</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -569,7 +569,7 @@
         <v>43831</v>
       </c>
       <c r="B14" t="n">
-        <v>29522370.17649766</v>
+        <v>29613724.57301848</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         <v>43862</v>
       </c>
       <c r="B15" t="n">
-        <v>27155370.91002785</v>
+        <v>27231565.54317662</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -587,7 +587,7 @@
         <v>43891</v>
       </c>
       <c r="B16" t="n">
-        <v>31060327.39477189</v>
+        <v>31096657.31639424</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -596,7 +596,7 @@
         <v>43922</v>
       </c>
       <c r="B17" t="n">
-        <v>30029587.27483831</v>
+        <v>30121836.90055531</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
@@ -605,7 +605,7 @@
         <v>43952</v>
       </c>
       <c r="B18" t="n">
-        <v>32843164.32918528</v>
+        <v>32874439.95578961</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -614,7 +614,7 @@
         <v>43983</v>
       </c>
       <c r="B19" t="n">
-        <v>31444568.77382671</v>
+        <v>31566250.68761757</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
@@ -623,7 +623,7 @@
         <v>44013</v>
       </c>
       <c r="B20" t="n">
-        <v>30610882.06481597</v>
+        <v>30818301.20889666</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
@@ -632,7 +632,7 @@
         <v>44044</v>
       </c>
       <c r="B21" t="n">
-        <v>28555321.7477882</v>
+        <v>28739836.22083662</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
@@ -641,7 +641,7 @@
         <v>44075</v>
       </c>
       <c r="B22" t="n">
-        <v>26382475.72182772</v>
+        <v>26546462.48104124</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
@@ -650,7 +650,7 @@
         <v>44105</v>
       </c>
       <c r="B23" t="n">
-        <v>28649469.03323794</v>
+        <v>28690947.43875616</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
@@ -659,7 +659,7 @@
         <v>44136</v>
       </c>
       <c r="B24" t="n">
-        <v>25816218.3486875</v>
+        <v>25959442.25870116</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
@@ -668,7 +668,7 @@
         <v>44166</v>
       </c>
       <c r="B25" t="n">
-        <v>29281979.71603907</v>
+        <v>29298076.76802815</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
@@ -677,7 +677,7 @@
         <v>44197</v>
       </c>
       <c r="B26" t="n">
-        <v>27753728.07899987</v>
+        <v>27845005.20001995</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
@@ -686,7 +686,7 @@
         <v>44228</v>
       </c>
       <c r="B27" t="n">
-        <v>22660795.01445609</v>
+        <v>22823904.18973401</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
@@ -695,7 +695,7 @@
         <v>44256</v>
       </c>
       <c r="B28" t="n">
-        <v>29593635.57586261</v>
+        <v>29586998.7730522</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
@@ -704,7 +704,7 @@
         <v>44287</v>
       </c>
       <c r="B29" t="n">
-        <v>29416019.73999482</v>
+        <v>29475017.28147933</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
@@ -713,7 +713,7 @@
         <v>44317</v>
       </c>
       <c r="B30" t="n">
-        <v>29651833.94530192</v>
+        <v>29757996.07536792</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
@@ -722,7 +722,7 @@
         <v>44348</v>
       </c>
       <c r="B31" t="n">
-        <v>28447853.31183398</v>
+        <v>28529750.76340461</v>
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
@@ -731,7 +731,7 @@
         <v>44378</v>
       </c>
       <c r="B32" t="n">
-        <v>31288196.9063148</v>
+        <v>31355641.65717198</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
@@ -740,7 +740,7 @@
         <v>44409</v>
       </c>
       <c r="B33" t="n">
-        <v>31168595.93619785</v>
+        <v>31295958.85435191</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
@@ -749,7 +749,7 @@
         <v>44440</v>
       </c>
       <c r="B34" t="n">
-        <v>31603771.85090236</v>
+        <v>31770750.16593684</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
@@ -758,7 +758,7 @@
         <v>44470</v>
       </c>
       <c r="B35" t="n">
-        <v>32623977.96019176</v>
+        <v>32835148.55388365</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
@@ -767,7 +767,7 @@
         <v>44501</v>
       </c>
       <c r="B36" t="n">
-        <v>32818970.24429518</v>
+        <v>33049794.00800843</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
@@ -776,7 +776,7 @@
         <v>44531</v>
       </c>
       <c r="B37" t="n">
-        <v>34124738.66057754</v>
+        <v>34363718.25552817</v>
       </c>
       <c r="C37" t="inlineStr"/>
     </row>
@@ -785,7 +785,7 @@
         <v>44562</v>
       </c>
       <c r="B38" t="n">
-        <v>34820208.04640339</v>
+        <v>35059091.1466525</v>
       </c>
       <c r="C38" t="inlineStr"/>
     </row>
@@ -794,7 +794,7 @@
         <v>44593</v>
       </c>
       <c r="B39" t="n">
-        <v>33377217.14464276</v>
+        <v>33700722.38692266</v>
       </c>
       <c r="C39" t="inlineStr"/>
     </row>
@@ -803,7 +803,7 @@
         <v>44621</v>
       </c>
       <c r="B40" t="n">
-        <v>34592089.3847781</v>
+        <v>34892019.58031176</v>
       </c>
       <c r="C40" t="inlineStr"/>
     </row>
@@ -812,7 +812,7 @@
         <v>44652</v>
       </c>
       <c r="B41" t="n">
-        <v>34362414.54278546</v>
+        <v>34636493.99016273</v>
       </c>
       <c r="C41" t="inlineStr"/>
     </row>
@@ -821,7 +821,7 @@
         <v>44682</v>
       </c>
       <c r="B42" t="n">
-        <v>34424415.02702004</v>
+        <v>34685427.51970047</v>
       </c>
       <c r="C42" t="inlineStr"/>
     </row>
@@ -830,7 +830,7 @@
         <v>44713</v>
       </c>
       <c r="B43" t="n">
-        <v>33220965.69090452</v>
+        <v>33473732.0588333</v>
       </c>
       <c r="C43" t="inlineStr"/>
     </row>
@@ -839,7 +839,7 @@
         <v>44743</v>
       </c>
       <c r="B44" t="n">
-        <v>34104947.3156146</v>
+        <v>34322558.62550101</v>
       </c>
       <c r="C44" t="inlineStr"/>
     </row>
@@ -848,7 +848,7 @@
         <v>44774</v>
       </c>
       <c r="B45" t="n">
-        <v>33940682.81396236</v>
+        <v>34146883.79488427</v>
       </c>
       <c r="C45" t="inlineStr"/>
     </row>
@@ -857,7 +857,7 @@
         <v>44805</v>
       </c>
       <c r="B46" t="n">
-        <v>32625155.42083496</v>
+        <v>32882409.97416475</v>
       </c>
       <c r="C46" t="inlineStr"/>
     </row>
@@ -866,7 +866,7 @@
         <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>33114803.8310305</v>
+        <v>33329546.10719059</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
@@ -875,7 +875,7 @@
         <v>44866</v>
       </c>
       <c r="B48" t="n">
-        <v>33389194.60973867</v>
+        <v>33566370.66293553</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
@@ -884,7 +884,7 @@
         <v>44896</v>
       </c>
       <c r="B49" t="n">
-        <v>34225811.09123894</v>
+        <v>34415368.60425345</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
@@ -893,7 +893,7 @@
         <v>44927</v>
       </c>
       <c r="B50" t="n">
-        <v>34030888.26868773</v>
+        <v>34217047.83416703</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
@@ -902,7 +902,7 @@
         <v>44958</v>
       </c>
       <c r="B51" t="n">
-        <v>33002289.24668416</v>
+        <v>33198924.80063807</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
@@ -911,7 +911,7 @@
         <v>44986</v>
       </c>
       <c r="B52" t="n">
-        <v>33967828.39063045</v>
+        <v>34176021.55677861</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
@@ -920,7 +920,7 @@
         <v>45017</v>
       </c>
       <c r="B53" t="n">
-        <v>34148235.66563115</v>
+        <v>34309132.22427823</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
@@ -929,7 +929,7 @@
         <v>45047</v>
       </c>
       <c r="B54" t="n">
-        <v>34384733.82053054</v>
+        <v>34551003.54551075</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
@@ -938,7 +938,7 @@
         <v>45078</v>
       </c>
       <c r="B55" t="n">
-        <v>32731853.42996196</v>
+        <v>32911371.17463948</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
@@ -947,7 +947,7 @@
         <v>45108</v>
       </c>
       <c r="B56" t="n">
-        <v>34498348.21514308</v>
+        <v>34616855.57810789</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
@@ -956,7 +956,7 @@
         <v>45139</v>
       </c>
       <c r="B57" t="n">
-        <v>33894733.68738294</v>
+        <v>34046116.88611117</v>
       </c>
       <c r="C57" t="inlineStr"/>
     </row>
@@ -965,7 +965,7 @@
         <v>45170</v>
       </c>
       <c r="B58" t="n">
-        <v>33791566.6424984</v>
+        <v>33946451.34793137</v>
       </c>
       <c r="C58" t="inlineStr"/>
     </row>
@@ -974,7 +974,7 @@
         <v>45200</v>
       </c>
       <c r="B59" t="n">
-        <v>33874980.83643209</v>
+        <v>34056549.69168962</v>
       </c>
       <c r="C59" t="inlineStr"/>
     </row>
@@ -983,7 +983,7 @@
         <v>45231</v>
       </c>
       <c r="B60" t="n">
-        <v>33110784.43885982</v>
+        <v>33284535.1190796</v>
       </c>
       <c r="C60" t="inlineStr"/>
     </row>
@@ -992,7 +992,7 @@
         <v>45261</v>
       </c>
       <c r="B61" t="n">
-        <v>33849527.2176802</v>
+        <v>33996061.14319745</v>
       </c>
       <c r="C61" t="inlineStr"/>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>33462940.49895208</v>
+        <v>33591331.4681097</v>
       </c>
     </row>
     <row r="63">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>31728682.91367316</v>
+        <v>31967493.6896475</v>
       </c>
     </row>
     <row r="64">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>33755671.6277825</v>
+        <v>34021845.55623547</v>
       </c>
     </row>
     <row r="65">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>33435755.61255902</v>
+        <v>33781529.43359028</v>
       </c>
     </row>
     <row r="66">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>34030089.47110272</v>
+        <v>34423831.68292445</v>
       </c>
     </row>
     <row r="67">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>32702177.77193726</v>
+        <v>33223052.88952442</v>
       </c>
     </row>
     <row r="68">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>33639753.24696071</v>
+        <v>34183876.9396918</v>
       </c>
     </row>
     <row r="69">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>32914835.421275</v>
+        <v>33568408.33514332</v>
       </c>
     </row>
     <row r="70">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>32226704.67276252</v>
+        <v>32999239.61811414</v>
       </c>
     </row>
     <row r="71">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>32943246.97751144</v>
+        <v>33734184.09341802</v>
       </c>
     </row>
     <row r="72">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>32327109.62317318</v>
+        <v>33237378.6794319</v>
       </c>
     </row>
     <row r="73">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>33457366.2998783</v>
+        <v>34341018.20827492</v>
       </c>
     </row>
     <row r="74">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>33162136.58326935</v>
+        <v>34135336.84577329</v>
       </c>
     </row>
     <row r="75">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>31373615.72473643</v>
+        <v>32599807.26844556</v>
       </c>
     </row>
     <row r="76">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>33469287.29960486</v>
+        <v>34540245.43510383</v>
       </c>
     </row>
     <row r="77">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>33143230.69297045</v>
+        <v>34309335.59926799</v>
       </c>
     </row>
     <row r="78">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>33756869.44945144</v>
+        <v>34919212.31708778</v>
       </c>
     </row>
     <row r="79">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>32393779.73748686</v>
+        <v>33774352.75424212</v>
       </c>
     </row>
     <row r="80">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>33361670.11534192</v>
+        <v>34685839.75170908</v>
       </c>
     </row>
     <row r="81">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>32619065.92589397</v>
+        <v>34097441.03765386</v>
       </c>
     </row>
     <row r="82">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>31912774.12995042</v>
+        <v>33554845.81413832</v>
       </c>
     </row>
     <row r="83">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>32654272.35019141</v>
+        <v>34250402.16298639</v>
       </c>
     </row>
     <row r="84">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>32022669.97173747</v>
+        <v>33775668.08534463</v>
       </c>
     </row>
     <row r="85">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>33188313.22800791</v>
+        <v>34824612.22026646</v>
       </c>
     </row>
     <row r="86">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>32887917.36130502</v>
+        <v>34625822.16521104</v>
       </c>
     </row>
     <row r="87">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>31047631.91041384</v>
+        <v>33163673.55662422</v>
       </c>
     </row>
     <row r="88">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>33208633.6036744</v>
+        <v>35008350.77503342</v>
       </c>
     </row>
     <row r="89">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>32876763.24750302</v>
+        <v>34785094.6209747</v>
       </c>
     </row>
     <row r="90">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>33508557.27286076</v>
+        <v>35367077.50105399</v>
       </c>
     </row>
     <row r="91">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>32112240.52886865</v>
+        <v>34269269.75092947</v>
       </c>
     </row>
     <row r="92">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>33108747.02228046</v>
+        <v>35138704.61635745</v>
       </c>
     </row>
     <row r="93">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>32349438.99843379</v>
+        <v>34572940.62901481</v>
       </c>
     </row>
     <row r="94">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>31625898.73436422</v>
+        <v>34052369.31720171</v>
       </c>
     </row>
     <row r="95">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>32391019.60626924</v>
+        <v>34714446.46059719</v>
       </c>
     </row>
     <row r="96">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>31744755.9989566</v>
+        <v>34258011.52686432</v>
       </c>
     </row>
     <row r="97">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>32943778.10539452</v>
+        <v>35260372.24965143</v>
       </c>
     </row>
     <row r="98">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>32638506.56635688</v>
+        <v>35067164.51508532</v>
       </c>
     </row>
     <row r="99">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>30749120.41384469</v>
+        <v>33666453.33609293</v>
       </c>
     </row>
     <row r="100">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>32971923.37958197</v>
+        <v>35430083.49360989</v>
       </c>
     </row>
     <row r="101">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>32634579.51225279</v>
+        <v>35213086.36941563</v>
       </c>
     </row>
     <row r="102">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>33283363.54785028</v>
+        <v>35770986.07198165</v>
       </c>
     </row>
     <row r="103">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>31855827.41772282</v>
+        <v>34712979.29388128</v>
       </c>
     </row>
     <row r="104">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>32879207.78706051</v>
+        <v>35546396.66038993</v>
       </c>
     </row>
     <row r="105">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>32104207.46736899</v>
+        <v>34999662.4615552</v>
       </c>
     </row>
     <row r="106">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>31364376.88457784</v>
+        <v>34497467.91773416</v>
       </c>
     </row>
     <row r="107">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>32151740.92267783</v>
+        <v>35130928.8265964</v>
       </c>
     </row>
     <row r="108">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>31491654.66667645</v>
+        <v>34689763.51399436</v>
       </c>
     </row>
     <row r="109">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>32722001.20498152</v>
+        <v>35652252.2578273</v>
       </c>
     </row>
     <row r="110">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>32412153.17011681</v>
+        <v>35463588.12589493</v>
       </c>
     </row>
     <row r="111">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>30476445.96451935</v>
+        <v>34114653.63083909</v>
       </c>
     </row>
     <row r="112">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>32757406.28158432</v>
+        <v>35809289.79327081</v>
       </c>
     </row>
     <row r="113">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>32414936.3439728</v>
+        <v>35597436.39682216</v>
       </c>
     </row>
     <row r="114">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>33079545.87659123</v>
+        <v>36134476.01916764</v>
       </c>
     </row>
     <row r="115">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>31622822.4571338</v>
+        <v>35110298.82174069</v>
       </c>
     </row>
     <row r="116">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>32671317.64429719</v>
+        <v>35912736.30705312</v>
       </c>
     </row>
     <row r="117">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>31881649.05894037</v>
+        <v>35382081.52863974</v>
       </c>
     </row>
     <row r="118">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>31126514.5991739</v>
+        <v>34895313.81610255</v>
       </c>
     </row>
     <row r="119">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>31934718.13956056</v>
+        <v>35504197.7994956</v>
       </c>
     </row>
     <row r="120">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>31261667.83962523</v>
+        <v>35075848.70739045</v>
       </c>
     </row>
     <row r="121">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>32521268.73614869</v>
+        <v>36004062.24576887</v>
       </c>
     </row>
     <row r="122">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>32207146.9177208</v>
+        <v>35819113.6769036</v>
       </c>
     </row>
     <row r="123">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>30227966.53515987</v>
+        <v>34514066.25808962</v>
       </c>
     </row>
     <row r="124">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>32563383.11769573</v>
+        <v>36149673.28931049</v>
       </c>
     </row>
     <row r="125">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>32216136.14155535</v>
+        <v>35942067.36302781</v>
       </c>
     </row>
     <row r="126">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>32895421.92778634</v>
+        <v>36460987.51807114</v>
       </c>
     </row>
     <row r="127">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>31411538.61096289</v>
+        <v>35465689.60418652</v>
       </c>
     </row>
     <row r="128">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>32483396.89869665</v>
+        <v>36241381.54248476</v>
       </c>
     </row>
     <row r="129">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>31680081.67004792</v>
+        <v>35724375.88180747</v>
       </c>
     </row>
     <row r="130">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>30910641.96177518</v>
+        <v>35250629.57747985</v>
       </c>
     </row>
     <row r="131">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>31738277.52080849</v>
+        <v>35838318.9401285</v>
       </c>
     </row>
     <row r="132">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>31053128.20462503</v>
+        <v>35420784.03576662</v>
       </c>
     </row>
     <row r="133">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>32339925.73619492</v>
+        <v>36319422.47637059</v>
       </c>
     </row>
   </sheetData>

--- a/py_Normales.xlsx
+++ b/py_Normales.xlsx
@@ -461,7 +461,7 @@
         <v>43466</v>
       </c>
       <c r="B2" t="n">
-        <v>30947677.7467459</v>
+        <v>30877602.19952178</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -470,7 +470,7 @@
         <v>43497</v>
       </c>
       <c r="B3" t="n">
-        <v>29515377.67375821</v>
+        <v>29425926.01498989</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
@@ -479,7 +479,7 @@
         <v>43525</v>
       </c>
       <c r="B4" t="n">
-        <v>32905530.39406767</v>
+        <v>32825791.26025853</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -488,7 +488,7 @@
         <v>43556</v>
       </c>
       <c r="B5" t="n">
-        <v>32032478.07125073</v>
+        <v>31884251.26219973</v>
       </c>
       <c r="C5" t="inlineStr"/>
     </row>
@@ -497,7 +497,7 @@
         <v>43586</v>
       </c>
       <c r="B6" t="n">
-        <v>31893947.75122008</v>
+        <v>31739388.76188866</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -506,7 +506,7 @@
         <v>43617</v>
       </c>
       <c r="B7" t="n">
-        <v>29080626.15851077</v>
+        <v>28902159.54152019</v>
       </c>
       <c r="C7" t="inlineStr"/>
     </row>
@@ -515,7 +515,7 @@
         <v>43647</v>
       </c>
       <c r="B8" t="n">
-        <v>31241377.11932004</v>
+        <v>31176153.4257907</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -524,7 +524,7 @@
         <v>43678</v>
       </c>
       <c r="B9" t="n">
-        <v>30492705.88288156</v>
+        <v>30406426.97604388</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -533,7 +533,7 @@
         <v>43709</v>
       </c>
       <c r="B10" t="n">
-        <v>30367625.67267536</v>
+        <v>30281776.63791834</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
@@ -542,7 +542,7 @@
         <v>43739</v>
       </c>
       <c r="B11" t="n">
-        <v>30844313.4298753</v>
+        <v>30721108.17010658</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
@@ -551,7 +551,7 @@
         <v>43770</v>
       </c>
       <c r="B12" t="n">
-        <v>29496216.03605703</v>
+        <v>29352848.9193178</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
@@ -560,7 +560,7 @@
         <v>43800</v>
       </c>
       <c r="B13" t="n">
-        <v>30310231.59247039</v>
+        <v>30191687.56662747</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -569,7 +569,7 @@
         <v>43831</v>
       </c>
       <c r="B14" t="n">
-        <v>29613724.57301848</v>
+        <v>29522370.17649766</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         <v>43862</v>
       </c>
       <c r="B15" t="n">
-        <v>27231565.54317662</v>
+        <v>27155370.91002785</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -587,7 +587,7 @@
         <v>43891</v>
       </c>
       <c r="B16" t="n">
-        <v>31096657.31639424</v>
+        <v>31060327.39477189</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -596,7 +596,7 @@
         <v>43922</v>
       </c>
       <c r="B17" t="n">
-        <v>30121836.90055531</v>
+        <v>30029587.27483831</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
@@ -605,7 +605,7 @@
         <v>43952</v>
       </c>
       <c r="B18" t="n">
-        <v>32874439.95578961</v>
+        <v>32843164.32918528</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -614,7 +614,7 @@
         <v>43983</v>
       </c>
       <c r="B19" t="n">
-        <v>31566250.68761757</v>
+        <v>31444568.77382671</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
@@ -623,7 +623,7 @@
         <v>44013</v>
       </c>
       <c r="B20" t="n">
-        <v>30818301.20889666</v>
+        <v>30610882.06481597</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
@@ -632,7 +632,7 @@
         <v>44044</v>
       </c>
       <c r="B21" t="n">
-        <v>28739836.22083662</v>
+        <v>28555321.7477882</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
@@ -641,7 +641,7 @@
         <v>44075</v>
       </c>
       <c r="B22" t="n">
-        <v>26546462.48104124</v>
+        <v>26382475.72182772</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
@@ -650,7 +650,7 @@
         <v>44105</v>
       </c>
       <c r="B23" t="n">
-        <v>28690947.43875616</v>
+        <v>28649469.03323794</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
@@ -659,7 +659,7 @@
         <v>44136</v>
       </c>
       <c r="B24" t="n">
-        <v>25959442.25870116</v>
+        <v>25816218.3486875</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
@@ -668,7 +668,7 @@
         <v>44166</v>
       </c>
       <c r="B25" t="n">
-        <v>29298076.76802815</v>
+        <v>29281979.71603907</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
@@ -677,7 +677,7 @@
         <v>44197</v>
       </c>
       <c r="B26" t="n">
-        <v>27845005.20001995</v>
+        <v>27753728.07899987</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
@@ -686,7 +686,7 @@
         <v>44228</v>
       </c>
       <c r="B27" t="n">
-        <v>22823904.18973401</v>
+        <v>22660795.01445609</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
@@ -695,7 +695,7 @@
         <v>44256</v>
       </c>
       <c r="B28" t="n">
-        <v>29586998.7730522</v>
+        <v>29593635.57586261</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
@@ -704,7 +704,7 @@
         <v>44287</v>
       </c>
       <c r="B29" t="n">
-        <v>29475017.28147933</v>
+        <v>29416019.73999482</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
@@ -713,7 +713,7 @@
         <v>44317</v>
       </c>
       <c r="B30" t="n">
-        <v>29757996.07536792</v>
+        <v>29651833.94530192</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
@@ -722,7 +722,7 @@
         <v>44348</v>
       </c>
       <c r="B31" t="n">
-        <v>28529750.76340461</v>
+        <v>28447853.31183398</v>
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
@@ -731,7 +731,7 @@
         <v>44378</v>
       </c>
       <c r="B32" t="n">
-        <v>31355641.65717198</v>
+        <v>31288196.9063148</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
@@ -740,7 +740,7 @@
         <v>44409</v>
       </c>
       <c r="B33" t="n">
-        <v>31295958.85435191</v>
+        <v>31168595.93619785</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
@@ -749,7 +749,7 @@
         <v>44440</v>
       </c>
       <c r="B34" t="n">
-        <v>31770750.16593684</v>
+        <v>31603771.85090236</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
@@ -758,7 +758,7 @@
         <v>44470</v>
       </c>
       <c r="B35" t="n">
-        <v>32835148.55388365</v>
+        <v>32623977.96019176</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
@@ -767,7 +767,7 @@
         <v>44501</v>
       </c>
       <c r="B36" t="n">
-        <v>33049794.00800843</v>
+        <v>32818970.24429518</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
@@ -776,7 +776,7 @@
         <v>44531</v>
       </c>
       <c r="B37" t="n">
-        <v>34363718.25552817</v>
+        <v>34124738.66057754</v>
       </c>
       <c r="C37" t="inlineStr"/>
     </row>
@@ -785,7 +785,7 @@
         <v>44562</v>
       </c>
       <c r="B38" t="n">
-        <v>35059091.1466525</v>
+        <v>34820208.04640339</v>
       </c>
       <c r="C38" t="inlineStr"/>
     </row>
@@ -794,7 +794,7 @@
         <v>44593</v>
       </c>
       <c r="B39" t="n">
-        <v>33700722.38692266</v>
+        <v>33377217.14464276</v>
       </c>
       <c r="C39" t="inlineStr"/>
     </row>
@@ -803,7 +803,7 @@
         <v>44621</v>
       </c>
       <c r="B40" t="n">
-        <v>34892019.58031176</v>
+        <v>34592089.3847781</v>
       </c>
       <c r="C40" t="inlineStr"/>
     </row>
@@ -812,7 +812,7 @@
         <v>44652</v>
       </c>
       <c r="B41" t="n">
-        <v>34636493.99016273</v>
+        <v>34362414.54278546</v>
       </c>
       <c r="C41" t="inlineStr"/>
     </row>
@@ -821,7 +821,7 @@
         <v>44682</v>
       </c>
       <c r="B42" t="n">
-        <v>34685427.51970047</v>
+        <v>34424415.02702004</v>
       </c>
       <c r="C42" t="inlineStr"/>
     </row>
@@ -830,7 +830,7 @@
         <v>44713</v>
       </c>
       <c r="B43" t="n">
-        <v>33473732.0588333</v>
+        <v>33220965.69090452</v>
       </c>
       <c r="C43" t="inlineStr"/>
     </row>
@@ -839,7 +839,7 @@
         <v>44743</v>
       </c>
       <c r="B44" t="n">
-        <v>34322558.62550101</v>
+        <v>34104947.3156146</v>
       </c>
       <c r="C44" t="inlineStr"/>
     </row>
@@ -848,7 +848,7 @@
         <v>44774</v>
       </c>
       <c r="B45" t="n">
-        <v>34146883.79488427</v>
+        <v>33940682.81396236</v>
       </c>
       <c r="C45" t="inlineStr"/>
     </row>
@@ -857,7 +857,7 @@
         <v>44805</v>
       </c>
       <c r="B46" t="n">
-        <v>32882409.97416475</v>
+        <v>32625155.42083496</v>
       </c>
       <c r="C46" t="inlineStr"/>
     </row>
@@ -866,7 +866,7 @@
         <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>33329546.10719059</v>
+        <v>33114803.8310305</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
@@ -875,7 +875,7 @@
         <v>44866</v>
       </c>
       <c r="B48" t="n">
-        <v>33566370.66293553</v>
+        <v>33389194.60973867</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
@@ -884,7 +884,7 @@
         <v>44896</v>
       </c>
       <c r="B49" t="n">
-        <v>34415368.60425345</v>
+        <v>34225811.09123894</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
@@ -893,7 +893,7 @@
         <v>44927</v>
       </c>
       <c r="B50" t="n">
-        <v>34217047.83416703</v>
+        <v>34030888.26868773</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
@@ -902,7 +902,7 @@
         <v>44958</v>
       </c>
       <c r="B51" t="n">
-        <v>33198924.80063807</v>
+        <v>33002289.24668416</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
@@ -911,7 +911,7 @@
         <v>44986</v>
       </c>
       <c r="B52" t="n">
-        <v>34176021.55677861</v>
+        <v>33967828.39063045</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
@@ -920,7 +920,7 @@
         <v>45017</v>
       </c>
       <c r="B53" t="n">
-        <v>34309132.22427823</v>
+        <v>34148235.66563115</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
@@ -929,7 +929,7 @@
         <v>45047</v>
       </c>
       <c r="B54" t="n">
-        <v>34551003.54551075</v>
+        <v>34384733.82053054</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
@@ -938,7 +938,7 @@
         <v>45078</v>
       </c>
       <c r="B55" t="n">
-        <v>32911371.17463948</v>
+        <v>32731853.42996196</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
@@ -947,7 +947,7 @@
         <v>45108</v>
       </c>
       <c r="B56" t="n">
-        <v>34616855.57810789</v>
+        <v>34498348.21514308</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
@@ -956,7 +956,7 @@
         <v>45139</v>
       </c>
       <c r="B57" t="n">
-        <v>34046116.88611117</v>
+        <v>33894733.68738294</v>
       </c>
       <c r="C57" t="inlineStr"/>
     </row>
@@ -965,7 +965,7 @@
         <v>45170</v>
       </c>
       <c r="B58" t="n">
-        <v>33946451.34793137</v>
+        <v>33791566.6424984</v>
       </c>
       <c r="C58" t="inlineStr"/>
     </row>
@@ -974,7 +974,7 @@
         <v>45200</v>
       </c>
       <c r="B59" t="n">
-        <v>34056549.69168962</v>
+        <v>33874980.83643209</v>
       </c>
       <c r="C59" t="inlineStr"/>
     </row>
@@ -983,7 +983,7 @@
         <v>45231</v>
       </c>
       <c r="B60" t="n">
-        <v>33284535.1190796</v>
+        <v>33110784.43885982</v>
       </c>
       <c r="C60" t="inlineStr"/>
     </row>
@@ -992,7 +992,7 @@
         <v>45261</v>
       </c>
       <c r="B61" t="n">
-        <v>33996061.14319745</v>
+        <v>33849527.2176802</v>
       </c>
       <c r="C61" t="inlineStr"/>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>33591331.4681097</v>
+        <v>33462940.49895208</v>
       </c>
     </row>
     <row r="63">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>31967493.6896475</v>
+        <v>31728682.91367316</v>
       </c>
     </row>
     <row r="64">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>34021845.55623547</v>
+        <v>33755671.6277825</v>
       </c>
     </row>
     <row r="65">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>33781529.43359028</v>
+        <v>33435755.61255902</v>
       </c>
     </row>
     <row r="66">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>34423831.68292445</v>
+        <v>34030089.47110272</v>
       </c>
     </row>
     <row r="67">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>33223052.88952442</v>
+        <v>32702177.77193726</v>
       </c>
     </row>
     <row r="68">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>34183876.9396918</v>
+        <v>33639753.24696071</v>
       </c>
     </row>
     <row r="69">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>33568408.33514332</v>
+        <v>32914835.421275</v>
       </c>
     </row>
     <row r="70">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>32999239.61811414</v>
+        <v>32226704.67276252</v>
       </c>
     </row>
     <row r="71">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>33734184.09341802</v>
+        <v>32943246.97751144</v>
       </c>
     </row>
     <row r="72">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>33237378.6794319</v>
+        <v>32327109.62317318</v>
       </c>
     </row>
     <row r="73">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>34341018.20827492</v>
+        <v>33457366.2998783</v>
       </c>
     </row>
     <row r="74">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>34135336.84577329</v>
+        <v>33162136.58326935</v>
       </c>
     </row>
     <row r="75">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>32599807.26844556</v>
+        <v>31373615.72473643</v>
       </c>
     </row>
     <row r="76">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>34540245.43510383</v>
+        <v>33469287.29960486</v>
       </c>
     </row>
     <row r="77">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>34309335.59926799</v>
+        <v>33143230.69297045</v>
       </c>
     </row>
     <row r="78">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>34919212.31708778</v>
+        <v>33756869.44945144</v>
       </c>
     </row>
     <row r="79">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>33774352.75424212</v>
+        <v>32393779.73748686</v>
       </c>
     </row>
     <row r="80">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>34685839.75170908</v>
+        <v>33361670.11534192</v>
       </c>
     </row>
     <row r="81">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>34097441.03765386</v>
+        <v>32619065.92589397</v>
       </c>
     </row>
     <row r="82">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>33554845.81413832</v>
+        <v>31912774.12995042</v>
       </c>
     </row>
     <row r="83">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>34250402.16298639</v>
+        <v>32654272.35019141</v>
       </c>
     </row>
     <row r="84">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>33775668.08534463</v>
+        <v>32022669.97173747</v>
       </c>
     </row>
     <row r="85">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>34824612.22026646</v>
+        <v>33188313.22800791</v>
       </c>
     </row>
     <row r="86">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>34625822.16521104</v>
+        <v>32887917.36130502</v>
       </c>
     </row>
     <row r="87">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>33163673.55662422</v>
+        <v>31047631.91041384</v>
       </c>
     </row>
     <row r="88">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>35008350.77503342</v>
+        <v>33208633.6036744</v>
       </c>
     </row>
     <row r="89">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>34785094.6209747</v>
+        <v>32876763.24750302</v>
       </c>
     </row>
     <row r="90">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>35367077.50105399</v>
+        <v>33508557.27286076</v>
       </c>
     </row>
     <row r="91">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>34269269.75092947</v>
+        <v>32112240.52886865</v>
       </c>
     </row>
     <row r="92">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>35138704.61635745</v>
+        <v>33108747.02228046</v>
       </c>
     </row>
     <row r="93">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>34572940.62901481</v>
+        <v>32349438.99843379</v>
       </c>
     </row>
     <row r="94">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>34052369.31720171</v>
+        <v>31625898.73436422</v>
       </c>
     </row>
     <row r="95">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>34714446.46059719</v>
+        <v>32391019.60626924</v>
       </c>
     </row>
     <row r="96">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>34258011.52686432</v>
+        <v>31744755.9989566</v>
       </c>
     </row>
     <row r="97">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>35260372.24965143</v>
+        <v>32943778.10539452</v>
       </c>
     </row>
     <row r="98">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>35067164.51508532</v>
+        <v>32638506.56635688</v>
       </c>
     </row>
     <row r="99">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>33666453.33609293</v>
+        <v>30749120.41384469</v>
       </c>
     </row>
     <row r="100">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>35430083.49360989</v>
+        <v>32971923.37958197</v>
       </c>
     </row>
     <row r="101">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>35213086.36941563</v>
+        <v>32634579.51225279</v>
       </c>
     </row>
     <row r="102">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>35770986.07198165</v>
+        <v>33283363.54785028</v>
       </c>
     </row>
     <row r="103">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>34712979.29388128</v>
+        <v>31855827.41772282</v>
       </c>
     </row>
     <row r="104">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>35546396.66038993</v>
+        <v>32879207.78706051</v>
       </c>
     </row>
     <row r="105">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>34999662.4615552</v>
+        <v>32104207.46736899</v>
       </c>
     </row>
     <row r="106">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>34497467.91773416</v>
+        <v>31364376.88457784</v>
       </c>
     </row>
     <row r="107">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>35130928.8265964</v>
+        <v>32151740.92267783</v>
       </c>
     </row>
     <row r="108">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>34689763.51399436</v>
+        <v>31491654.66667645</v>
       </c>
     </row>
     <row r="109">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>35652252.2578273</v>
+        <v>32722001.20498152</v>
       </c>
     </row>
     <row r="110">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>35463588.12589493</v>
+        <v>32412153.17011681</v>
       </c>
     </row>
     <row r="111">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>34114653.63083909</v>
+        <v>30476445.96451935</v>
       </c>
     </row>
     <row r="112">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>35809289.79327081</v>
+        <v>32757406.28158432</v>
       </c>
     </row>
     <row r="113">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>35597436.39682216</v>
+        <v>32414936.3439728</v>
       </c>
     </row>
     <row r="114">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>36134476.01916764</v>
+        <v>33079545.87659123</v>
       </c>
     </row>
     <row r="115">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>35110298.82174069</v>
+        <v>31622822.4571338</v>
       </c>
     </row>
     <row r="116">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>35912736.30705312</v>
+        <v>32671317.64429719</v>
       </c>
     </row>
     <row r="117">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>35382081.52863974</v>
+        <v>31881649.05894037</v>
       </c>
     </row>
     <row r="118">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>34895313.81610255</v>
+        <v>31126514.5991739</v>
       </c>
     </row>
     <row r="119">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>35504197.7994956</v>
+        <v>31934718.13956056</v>
       </c>
     </row>
     <row r="120">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>35075848.70739045</v>
+        <v>31261667.83962523</v>
       </c>
     </row>
     <row r="121">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>36004062.24576887</v>
+        <v>32521268.73614869</v>
       </c>
     </row>
     <row r="122">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>35819113.6769036</v>
+        <v>32207146.9177208</v>
       </c>
     </row>
     <row r="123">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>34514066.25808962</v>
+        <v>30227966.53515987</v>
       </c>
     </row>
     <row r="124">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>36149673.28931049</v>
+        <v>32563383.11769573</v>
       </c>
     </row>
     <row r="125">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>35942067.36302781</v>
+        <v>32216136.14155535</v>
       </c>
     </row>
     <row r="126">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>36460987.51807114</v>
+        <v>32895421.92778634</v>
       </c>
     </row>
     <row r="127">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>35465689.60418652</v>
+        <v>31411538.61096289</v>
       </c>
     </row>
     <row r="128">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>36241381.54248476</v>
+        <v>32483396.89869665</v>
       </c>
     </row>
     <row r="129">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>35724375.88180747</v>
+        <v>31680081.67004792</v>
       </c>
     </row>
     <row r="130">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>35250629.57747985</v>
+        <v>30910641.96177518</v>
       </c>
     </row>
     <row r="131">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>35838318.9401285</v>
+        <v>31738277.52080849</v>
       </c>
     </row>
     <row r="132">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>35420784.03576662</v>
+        <v>31053128.20462503</v>
       </c>
     </row>
     <row r="133">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>36319422.47637059</v>
+        <v>32339925.73619492</v>
       </c>
     </row>
   </sheetData>
